--- a/4-from-pivots-to-aggregation/aggregation-demo.xlsx
+++ b/4-from-pivots-to-aggregation/aggregation-demo.xlsx
@@ -1,189 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\sql-for-excel-users\4-from-pivots-to-aggregation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{AF39684C-F9B1-43A1-83FB-8F6036C1FAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="emp" sheetId="2" r:id="rId1"/>
+    <sheet name="start" sheetId="6" r:id="rId1"/>
+    <sheet name="finish" sheetId="14" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
+  <si>
+    <t>empno</t>
+  </si>
+  <si>
+    <t>ename</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>mgr</t>
+  </si>
+  <si>
+    <t>hiredate</t>
+  </si>
+  <si>
+    <t>sal</t>
+  </si>
+  <si>
+    <t>conm</t>
+  </si>
+  <si>
+    <t>deptno</t>
+  </si>
+  <si>
+    <t>dept_title</t>
+  </si>
+  <si>
+    <t>locno</t>
+  </si>
+  <si>
+    <t>SCOTT</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>MANAGEMENT</t>
+  </si>
+  <si>
+    <t>SCHRUTE</t>
+  </si>
+  <si>
+    <t>ASST TO REGINONAL MANAGER</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>HALPERT</t>
+  </si>
+  <si>
+    <t>SALESPERSON</t>
+  </si>
+  <si>
+    <t>BEESLY</t>
+  </si>
+  <si>
+    <t>SECRETARY</t>
+  </si>
+  <si>
+    <t>OPERATIONS</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>TEMP</t>
+  </si>
+  <si>
+    <t>BERNARD</t>
+  </si>
+  <si>
+    <t>LEVINSON</t>
+  </si>
+  <si>
+    <t>VP SALES</t>
+  </si>
+  <si>
+    <t>HUDSON</t>
+  </si>
+  <si>
+    <t>MALONE</t>
+  </si>
+  <si>
+    <t>ACCOUNTANT</t>
+  </si>
   <si>
     <t>ACCOUNTING</t>
   </si>
   <si>
-    <t>SALES</t>
-  </si>
-  <si>
-    <t>OPERATIONS</t>
-  </si>
-  <si>
-    <t>deptno</t>
-  </si>
-  <si>
-    <t>locno</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
+    <t>PALMER</t>
+  </si>
+  <si>
+    <t>SUPPLIER RELATIONS REP</t>
+  </si>
+  <si>
+    <t>SUPPLIER RELATIONS</t>
   </si>
   <si>
     <t>MARTIN</t>
   </si>
   <si>
-    <t>SCOTT</t>
-  </si>
-  <si>
-    <t>empno</t>
-  </si>
-  <si>
-    <t>ename</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>mgr</t>
-  </si>
-  <si>
-    <t>hiredate</t>
-  </si>
-  <si>
-    <t>sal</t>
-  </si>
-  <si>
-    <t>conm</t>
-  </si>
-  <si>
-    <t>SCHRUTE</t>
-  </si>
-  <si>
-    <t>HALPERT</t>
-  </si>
-  <si>
-    <t>BEESLY</t>
-  </si>
-  <si>
-    <t>HOWARD</t>
-  </si>
-  <si>
-    <t>BERNARD</t>
-  </si>
-  <si>
-    <t>LEVINSON</t>
-  </si>
-  <si>
-    <t>HUDSON</t>
-  </si>
-  <si>
-    <t>MALONE</t>
-  </si>
-  <si>
-    <t>PALMER</t>
+    <t>DIRECTOR ACCOUNTING</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>SENIOR ACCOUNTANT</t>
+  </si>
+  <si>
     <t>LAPIN</t>
   </si>
   <si>
     <t>KAPOOR</t>
   </si>
   <si>
+    <t>CUSTOMER RELATIONS REP</t>
+  </si>
+  <si>
+    <t>CUSTOMER RELATIONS</t>
+  </si>
+  <si>
     <t>FLENDERSON</t>
   </si>
   <si>
+    <t>HUMAN RESOURCES REP</t>
+  </si>
+  <si>
+    <t>HUMAN RESOURCES</t>
+  </si>
+  <si>
     <t>FILIPPELLI</t>
   </si>
   <si>
     <t>BRATTON</t>
   </si>
   <si>
+    <t>QUABITY ASSUWANCE</t>
+  </si>
+  <si>
+    <t>QUALITY ASSURANCE</t>
+  </si>
+  <si>
     <t>PHILBIN</t>
   </si>
   <si>
+    <t>FOREMAN</t>
+  </si>
+  <si>
+    <t>LOGISTICS</t>
+  </si>
+  <si>
     <t>WALLACE</t>
   </si>
   <si>
-    <t>ASST TO REGINONAL MANAGER</t>
-  </si>
-  <si>
-    <t>TEMP</t>
-  </si>
-  <si>
-    <t>SALESPERSON</t>
-  </si>
-  <si>
-    <t>VP SALES</t>
-  </si>
-  <si>
-    <t>ACCOUNTANT</t>
-  </si>
-  <si>
-    <t>SUPPLIER RELATIONS REP</t>
-  </si>
-  <si>
-    <t>DIRECTOR ACCOUNTING</t>
-  </si>
-  <si>
-    <t>SENIOR ACCOUNTANT</t>
-  </si>
-  <si>
-    <t>CUSTOMER RELATIONS REP</t>
+    <t>CHIEF FINANCIAL OFFICER</t>
   </si>
   <si>
     <t>BRAND</t>
   </si>
   <si>
-    <t>HUMAN RESOURCES REP</t>
-  </si>
-  <si>
-    <t>QUABITY ASSUWANCE</t>
-  </si>
-  <si>
-    <t>FOREMAN</t>
-  </si>
-  <si>
-    <t>SECRETARY</t>
-  </si>
-  <si>
-    <t>CHIEF FINANCIAL OFFICER</t>
-  </si>
-  <si>
     <t>CHIEF EXECUTIVE OFFICER</t>
-  </si>
-  <si>
-    <t>dept_title</t>
-  </si>
-  <si>
-    <t>CUSTOMER RELATIONS</t>
-  </si>
-  <si>
-    <t>HUMAN RESOURCES</t>
-  </si>
-  <si>
-    <t>LOGISTICS</t>
-  </si>
-  <si>
-    <t>MANAGEMENT</t>
-  </si>
-  <si>
-    <t>QUALITY ASSURANCE</t>
-  </si>
-  <si>
-    <t>SUPPLIER RELATIONS</t>
   </si>
   <si>
     <t>total</t>
@@ -195,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,24 +242,176 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="2" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
+    <tableStyle name="Stringfest" pivot="0" count="3" xr9:uid="{80757AD5-BA57-4B3B-81C1-A3519B7631A7}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+    </tableStyle>
+    <tableStyle name="Stringfest_Pivot" table="0" count="10" xr9:uid="{E4F46EAF-081F-4FE3-B38A-4D174B16E75D}">
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="10"/>
+      <tableStyleElement type="thirdSubtotalRow" dxfId="9"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="8"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="7"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="6"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="5"/>
+      <tableStyleElement type="pageFieldValues" dxfId="4"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFD23338"/>
+      <color rgb="FFFB3338"/>
+      <color rgb="FF3D3935"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -257,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="employees" displayName="employees" ref="A1:J21" totalsRowShown="0">
-  <autoFilter ref="A1:J21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AFAD53D-D574-4B8C-A9CE-148F60D16929}" name="employees" displayName="employees" ref="A1:J21" totalsRowShown="0">
+  <autoFilter ref="A1:J21" xr:uid="{A3FCF27A-2437-43F6-83B7-BDEA61804B98}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -271,16 +438,46 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="empno"/>
-    <tableColumn id="2" name="ename"/>
-    <tableColumn id="3" name="job"/>
-    <tableColumn id="4" name="mgr"/>
-    <tableColumn id="5" name="hiredate" dataDxfId="1"/>
-    <tableColumn id="6" name="sal"/>
-    <tableColumn id="7" name="conm"/>
-    <tableColumn id="8" name="deptno"/>
-    <tableColumn id="9" name="dept_title"/>
-    <tableColumn id="10" name="locno" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BA8AD961-CD55-4C5F-8D3E-967EAFFE7B80}" name="empno"/>
+    <tableColumn id="2" xr3:uid="{3E233D15-D3A1-451D-BFAD-0EEBF31277B3}" name="ename"/>
+    <tableColumn id="3" xr3:uid="{DAC59160-CF31-4893-A6CC-FE979BBA6C6E}" name="job"/>
+    <tableColumn id="4" xr3:uid="{F4878960-745C-410C-A35B-3FD204DD4EC2}" name="mgr"/>
+    <tableColumn id="5" xr3:uid="{CB2954C6-9509-43B4-94DC-5A64DDF7D270}" name="hiredate" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A2F7FFFE-3141-47B0-8ED4-8DB157FBD8B3}" name="sal"/>
+    <tableColumn id="7" xr3:uid="{342F05A8-B995-4A56-862D-9746AE7FBD75}" name="conm"/>
+    <tableColumn id="8" xr3:uid="{AA0CE522-926C-458E-A8BC-6E751C39229E}" name="deptno"/>
+    <tableColumn id="9" xr3:uid="{87694186-9204-49F2-B114-7F748FDF9D3E}" name="dept_title"/>
+    <tableColumn id="10" xr3:uid="{CB36324A-1F17-4DB8-A196-64AF0CB0E50A}" name="locno" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFCDFEFC-7CF7-49DC-A235-492BC73FFFFE}" name="employees3" displayName="employees3" ref="A1:J21" totalsRowShown="0">
+  <autoFilter ref="A1:J21" xr:uid="{A3FCF27A-2437-43F6-83B7-BDEA61804B98}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{1F3D9D8F-029D-4C9F-8D65-E8A8B5F0D56E}" name="empno"/>
+    <tableColumn id="2" xr3:uid="{CA262092-88F3-4A09-BD5B-0E445044817F}" name="ename"/>
+    <tableColumn id="3" xr3:uid="{27B17675-0088-4839-BC7C-5ED4D4EBC91F}" name="job"/>
+    <tableColumn id="4" xr3:uid="{89A7B69F-6A44-44B1-B34F-B6A26E45A3C0}" name="mgr"/>
+    <tableColumn id="5" xr3:uid="{391CF084-7B1B-4238-9864-EC57E059075C}" name="hiredate" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{5923B80A-EF70-43A2-833D-3C5A5C4F167E}" name="sal"/>
+    <tableColumn id="7" xr3:uid="{B15F0941-A0E4-4983-AE06-B8FAD73843D2}" name="conm"/>
+    <tableColumn id="8" xr3:uid="{6E0E6BDE-22F4-489C-BF5E-D127E34E3FFA}" name="deptno"/>
+    <tableColumn id="9" xr3:uid="{D9AF7877-B1E9-4E3E-A466-7A334E3913D5}" name="dept_title"/>
+    <tableColumn id="10" xr3:uid="{BDAF3840-3DBC-481C-8322-07DE32C8EC47}" name="locno" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -289,7 +486,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Stringfest">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -303,22 +500,22 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="D93644"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="D97179"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F2B3B9"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="403C38"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="D8D8D8"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F2F2F2"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0563C1"/>
@@ -362,6 +559,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -397,6 +611,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,70 +779,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9759</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9759</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>3710</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>34480</v>
       </c>
       <c r="F2">
@@ -621,26 +856,26 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5156</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>9759</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>36841</v>
       </c>
       <c r="F3">
@@ -650,13 +885,13 @@
         <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9844</v>
       </c>
@@ -664,12 +899,12 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>9759</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>36951</v>
       </c>
       <c r="F4">
@@ -679,26 +914,26 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4965</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>9759</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>36720</v>
       </c>
       <c r="F5">
@@ -708,26 +943,26 @@
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5262</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>9759</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>38435</v>
       </c>
       <c r="F6">
@@ -737,26 +972,26 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1403</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>9759</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>37786</v>
       </c>
       <c r="F7">
@@ -766,26 +1001,26 @@
         <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8215</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>2029</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>37437</v>
       </c>
       <c r="F8">
@@ -795,26 +1030,26 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="2">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9735</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>9759</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>35929</v>
       </c>
       <c r="F9">
@@ -824,26 +1059,26 @@
         <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7870</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>3304</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>36496</v>
       </c>
       <c r="F10">
@@ -853,26 +1088,26 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4460</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>9759</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>35915</v>
       </c>
       <c r="F11">
@@ -882,26 +1117,26 @@
         <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3304</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>9759</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>35151</v>
       </c>
       <c r="F12">
@@ -911,26 +1146,26 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6811</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>3304</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>36431</v>
       </c>
       <c r="F13">
@@ -940,26 +1175,26 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9909</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>9759</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>33037</v>
       </c>
       <c r="F14">
@@ -969,26 +1204,26 @@
         <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6395</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>9759</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>37276</v>
       </c>
       <c r="F15">
@@ -998,18 +1233,18 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4858</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -1017,7 +1252,7 @@
       <c r="D16">
         <v>7852</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>34444</v>
       </c>
       <c r="F16">
@@ -1027,26 +1262,26 @@
         <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8514</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>2029</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>37562</v>
       </c>
       <c r="F17">
@@ -1056,26 +1291,26 @@
         <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="2">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4518</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>9759</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>32704</v>
       </c>
       <c r="F18">
@@ -1085,26 +1320,26 @@
         <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3891</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>9759</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>35693</v>
       </c>
       <c r="F19">
@@ -1114,26 +1349,26 @@
         <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2029</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>7852</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>36235</v>
       </c>
       <c r="F20">
@@ -1143,26 +1378,26 @@
         <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="2">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7852</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>7852</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>32132</v>
       </c>
       <c r="F21">
@@ -1172,37 +1407,702 @@
         <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="2">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>55</v>
       </c>
+      <c r="F23" s="3"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="J24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985E0740-A4FE-4A06-BA4A-5A1C5AD526F5}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9759</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>3710</v>
+      </c>
+      <c r="E2" s="2">
+        <v>34480</v>
+      </c>
+      <c r="F2">
+        <v>1900</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>9759</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36841</v>
+      </c>
+      <c r="F3">
+        <v>1500</v>
+      </c>
+      <c r="H3">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9844</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>9759</v>
+      </c>
+      <c r="E4" s="2">
+        <v>36951</v>
+      </c>
+      <c r="F4">
+        <v>1500</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4965</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>9759</v>
+      </c>
+      <c r="E5" s="2">
+        <v>36720</v>
+      </c>
+      <c r="F5">
+        <v>1300</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>9759</v>
+      </c>
+      <c r="E6" s="2">
+        <v>38435</v>
+      </c>
+      <c r="F6">
+        <v>900</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1403</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>9759</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37786</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>2029</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37437</v>
+      </c>
+      <c r="F8">
+        <v>2500</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9735</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>9759</v>
+      </c>
+      <c r="E9" s="2">
+        <v>35929</v>
+      </c>
+      <c r="F9">
+        <v>1500</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7870</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>3304</v>
+      </c>
+      <c r="E10" s="2">
+        <v>36496</v>
+      </c>
+      <c r="F10">
+        <v>1100</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4460</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>9759</v>
+      </c>
+      <c r="E11" s="2">
+        <v>35915</v>
+      </c>
+      <c r="F11">
+        <v>1300</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3304</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>9759</v>
+      </c>
+      <c r="E12" s="2">
+        <v>35151</v>
+      </c>
+      <c r="F12">
+        <v>1600</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6811</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>3304</v>
+      </c>
+      <c r="E13" s="2">
+        <v>36431</v>
+      </c>
+      <c r="F13">
+        <v>1300</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9909</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>9759</v>
+      </c>
+      <c r="E14" s="2">
+        <v>33037</v>
+      </c>
+      <c r="F14">
+        <v>1500</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6395</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>9759</v>
+      </c>
+      <c r="E15" s="2">
+        <v>37276</v>
+      </c>
+      <c r="F15">
+        <v>1300</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4858</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>7852</v>
+      </c>
+      <c r="E16" s="2">
+        <v>34444</v>
+      </c>
+      <c r="F16">
+        <v>1750</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8514</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>2029</v>
+      </c>
+      <c r="E17" s="2">
+        <v>37562</v>
+      </c>
+      <c r="F17">
+        <v>2000</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4518</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>9759</v>
+      </c>
+      <c r="E18" s="2">
+        <v>32704</v>
+      </c>
+      <c r="F18">
+        <v>1300</v>
+      </c>
+      <c r="H18">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3891</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>9759</v>
+      </c>
+      <c r="E19" s="2">
+        <v>35693</v>
+      </c>
+      <c r="F19">
+        <v>1500</v>
+      </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>7852</v>
+      </c>
+      <c r="E20" s="2">
+        <v>36235</v>
+      </c>
+      <c r="F20">
+        <v>3000</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7852</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>7852</v>
+      </c>
+      <c r="E21" s="2">
+        <v>32132</v>
+      </c>
+      <c r="F21">
+        <v>5000</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
       <c r="F23" s="3">
-        <f>SUM(employees[sal])</f>
+        <f>SUM(employees3[sal])</f>
         <v>35250</v>
       </c>
       <c r="G23" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F23)</f>
-        <v>=SUM(employees[sal])</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>=SUM(employees3[sal])</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="3">
-        <f>AVERAGEIF(employees[deptno],50,employees[sal])</f>
+        <f>AVERAGEIF(employees3[deptno],50,employees3[sal])</f>
         <v>2880</v>
       </c>
       <c r="G24" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F24)</f>
-        <v>=AVERAGEIF(employees[deptno],50,employees[sal])</v>
-      </c>
+        <v>=AVERAGEIF(employees3[deptno],50,employees3[sal])</v>
+      </c>
+      <c r="J24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
